--- a/DRL-HK2.xlsx
+++ b/DRL-HK2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>STT</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Minh chứng cộng đrl cài app Bluezone</t>
+  </si>
+  <si>
+    <t>Hình ảnh</t>
   </si>
 </sst>
 </file>
@@ -87,6 +90,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299829</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="266700"/>
+          <a:ext cx="4557504" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +435,7 @@
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +448,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -417,7 +466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -425,7 +474,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -433,7 +482,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -441,7 +490,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -449,7 +498,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -457,7 +506,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -465,7 +514,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -473,7 +522,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -481,7 +530,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -489,7 +538,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -500,5 +549,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DRL-HK2.xlsx
+++ b/DRL-HK2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Hình ảnh</t>
+  </si>
+  <si>
+    <t>Tờ khai Y tế</t>
+  </si>
+  <si>
+    <t>Số điểm</t>
   </si>
 </sst>
 </file>
@@ -96,16 +102,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>299829</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>397564</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -122,8 +128,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="266700"/>
-          <a:ext cx="4557504" cy="1476375"/>
+          <a:off x="6124575" y="257175"/>
+          <a:ext cx="4645714" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,9 +439,10 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,10 +456,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -465,86 +475,103 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>44249</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44249</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
